--- a/src/test/resources/TestData/HomeDelivery.xlsx
+++ b/src/test/resources/TestData/HomeDelivery.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20374"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{0983CBEE-BAC4-455B-9076-503984FA49E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{38F5CE07-3E87-44AA-A71F-0A289BF385F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16440" windowHeight="7728" xr2:uid="{48F3C339-550A-4305-A6CE-E93A2AA5A07D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17004" windowHeight="6444" xr2:uid="{48F3C339-550A-4305-A6CE-E93A2AA5A07D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="RegisterData" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
   <oleSize ref="A1"/>
@@ -21,14 +21,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Mobile Number</t>
-  </si>
-  <si>
     <t>Email ID</t>
   </si>
   <si>
@@ -41,7 +38,7 @@
     <t>RD@gmail.com</t>
   </si>
   <si>
-    <t>rakdhu</t>
+    <t>Rakdhu@123</t>
   </si>
 </sst>
 </file>
@@ -86,10 +83,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -408,10 +404,15 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.21875" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -423,26 +424,24 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{71E31388-DD17-4201-86AE-A03BF5BE4340}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{71E31388-DD17-4201-86AE-A03BF5BE4340}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{158BCF9F-836B-4AA2-BFED-B3DAEF5DF607}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId3"/>
 </worksheet>
 </file>
--- a/src/test/resources/TestData/HomeDelivery.xlsx
+++ b/src/test/resources/TestData/HomeDelivery.xlsx
@@ -3,15 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20374"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{38F5CE07-3E87-44AA-A71F-0A289BF385F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{A28155B0-8538-4A4B-B4BB-379EB9761431}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17004" windowHeight="6444" xr2:uid="{48F3C339-550A-4305-A6CE-E93A2AA5A07D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17004" windowHeight="5292" xr2:uid="{48F3C339-550A-4305-A6CE-E93A2AA5A07D}"/>
   </bookViews>
   <sheets>
     <sheet name="RegisterData" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:O16"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
